--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama2</t>
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H2">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N2">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O2">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P2">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q2">
-        <v>364.947165435034</v>
+        <v>435.4929473484984</v>
       </c>
       <c r="R2">
-        <v>3284.524488915306</v>
+        <v>3919.436526136485</v>
       </c>
       <c r="S2">
-        <v>0.005130255355021873</v>
+        <v>0.005725502122721815</v>
       </c>
       <c r="T2">
-        <v>0.005130255355021873</v>
+        <v>0.005725502122721815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H3">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O3">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P3">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q3">
-        <v>958.6360320484659</v>
+        <v>970.6614306359323</v>
       </c>
       <c r="R3">
-        <v>8627.724288436193</v>
+        <v>8735.952875723391</v>
       </c>
       <c r="S3">
-        <v>0.01347605380376368</v>
+        <v>0.01276145599001602</v>
       </c>
       <c r="T3">
-        <v>0.01347605380376368</v>
+        <v>0.01276145599001602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H4">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N4">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O4">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P4">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q4">
-        <v>601.685212055078</v>
+        <v>532.3457941237027</v>
       </c>
       <c r="R4">
-        <v>5415.166908495701</v>
+        <v>4791.112147113325</v>
       </c>
       <c r="S4">
-        <v>0.008458207306538269</v>
+        <v>0.006998843478028142</v>
       </c>
       <c r="T4">
-        <v>0.008458207306538269</v>
+        <v>0.006998843478028142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H5">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N5">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O5">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P5">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q5">
-        <v>421.5131623369</v>
+        <v>453.2440930900297</v>
       </c>
       <c r="R5">
-        <v>3793.6184610321</v>
+        <v>4079.196837810267</v>
       </c>
       <c r="S5">
-        <v>0.005925433495868698</v>
+        <v>0.005958879547643808</v>
       </c>
       <c r="T5">
-        <v>0.005925433495868698</v>
+        <v>0.005958879547643809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H6">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N6">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O6">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P6">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q6">
-        <v>556.363634411558</v>
+        <v>450.3675405548607</v>
       </c>
       <c r="R6">
-        <v>5007.272709704022</v>
+        <v>4053.307864993746</v>
       </c>
       <c r="S6">
-        <v>0.007821097915302024</v>
+        <v>0.005921061007190957</v>
       </c>
       <c r="T6">
-        <v>0.007821097915302024</v>
+        <v>0.005921061007190958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N7">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O7">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P7">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q7">
-        <v>6417.112386801317</v>
+        <v>7562.697897587061</v>
       </c>
       <c r="R7">
-        <v>57754.01148121186</v>
+        <v>68064.28107828356</v>
       </c>
       <c r="S7">
-        <v>0.09020874335856476</v>
+        <v>0.09942811503555302</v>
       </c>
       <c r="T7">
-        <v>0.09020874335856476</v>
+        <v>0.09942811503555302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O8">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P8">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q8">
         <v>16856.34452965046</v>
@@ -948,10 +948,10 @@
         <v>151707.1007668541</v>
       </c>
       <c r="S8">
-        <v>0.2369585517570684</v>
+        <v>0.2216133165265982</v>
       </c>
       <c r="T8">
-        <v>0.2369585517570684</v>
+        <v>0.2216133165265982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N9">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O9">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P9">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q9">
-        <v>10579.83728310707</v>
+        <v>9244.628282778833</v>
       </c>
       <c r="R9">
-        <v>95218.53554796368</v>
+        <v>83201.6545450095</v>
       </c>
       <c r="S9">
-        <v>0.1487263692327055</v>
+        <v>0.1215407486598574</v>
       </c>
       <c r="T9">
-        <v>0.1487263692327055</v>
+        <v>0.1215407486598574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N10">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O10">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P10">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q10">
-        <v>7411.750498205822</v>
+        <v>7870.961334220424</v>
       </c>
       <c r="R10">
-        <v>66705.7544838524</v>
+        <v>70838.65200798382</v>
       </c>
       <c r="S10">
-        <v>0.1041908974362902</v>
+        <v>0.1034809084769803</v>
       </c>
       <c r="T10">
-        <v>0.1041908974362902</v>
+        <v>0.1034809084769803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N11">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O11">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P11">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q11">
-        <v>9782.917386664196</v>
+        <v>7821.007602610133</v>
       </c>
       <c r="R11">
-        <v>88046.25647997776</v>
+        <v>70389.0684234912</v>
       </c>
       <c r="S11">
-        <v>0.1375236446920834</v>
+        <v>0.1028241580103793</v>
       </c>
       <c r="T11">
-        <v>0.1375236446920834</v>
+        <v>0.1028241580103793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H12">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N12">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O12">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P12">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q12">
-        <v>1.540000773149222</v>
+        <v>8.225901487619998</v>
       </c>
       <c r="R12">
-        <v>13.860006958343</v>
+        <v>74.03311338857999</v>
       </c>
       <c r="S12">
-        <v>2.164860550093256E-05</v>
+        <v>0.0001081473688963777</v>
       </c>
       <c r="T12">
-        <v>2.164860550093256E-05</v>
+        <v>0.0001081473688963777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H13">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O13">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P13">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q13">
-        <v>4.045243723878555</v>
+        <v>18.334545610572</v>
       </c>
       <c r="R13">
-        <v>36.40719351490699</v>
+        <v>165.010910495148</v>
       </c>
       <c r="S13">
-        <v>5.686613088789957E-05</v>
+        <v>0.000241047485272971</v>
       </c>
       <c r="T13">
-        <v>5.686613088789957E-05</v>
+        <v>0.000241047485272971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H14">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N14">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O14">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P14">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q14">
-        <v>2.538985857453444</v>
+        <v>10.055327156208</v>
       </c>
       <c r="R14">
-        <v>22.850872717081</v>
+        <v>90.497944405872</v>
       </c>
       <c r="S14">
-        <v>3.569186727617998E-05</v>
+        <v>0.0001321991488680987</v>
       </c>
       <c r="T14">
-        <v>3.569186727617999E-05</v>
+        <v>0.0001321991488680988</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H15">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N15">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O15">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P15">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q15">
-        <v>1.778697459172222</v>
+        <v>8.561197792763998</v>
       </c>
       <c r="R15">
-        <v>16.00827713255</v>
+        <v>77.05078013487599</v>
       </c>
       <c r="S15">
-        <v>2.500409108262141E-05</v>
+        <v>0.0001125555681991014</v>
       </c>
       <c r="T15">
-        <v>2.500409108262141E-05</v>
+        <v>0.0001125555681991014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H16">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N16">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O16">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P16">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q16">
-        <v>2.347738270893445</v>
+        <v>8.506863416231999</v>
       </c>
       <c r="R16">
-        <v>21.129644438041</v>
+        <v>76.56177074608799</v>
       </c>
       <c r="S16">
-        <v>3.300339878536468E-05</v>
+        <v>0.0001118412246257673</v>
       </c>
       <c r="T16">
-        <v>3.300339878536468E-05</v>
+        <v>0.0001118412246257673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H17">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N17">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O17">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P17">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q17">
-        <v>2158.76248923613</v>
+        <v>3641.975994605119</v>
       </c>
       <c r="R17">
-        <v>19428.86240312517</v>
+        <v>32777.78395144607</v>
       </c>
       <c r="S17">
-        <v>0.03034686625781047</v>
+        <v>0.04788169685633694</v>
       </c>
       <c r="T17">
-        <v>0.03034686625781047</v>
+        <v>0.04788169685633695</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H18">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O18">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P18">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q18">
-        <v>5670.594822539563</v>
+        <v>8117.52670344896</v>
       </c>
       <c r="R18">
-        <v>51035.35340285607</v>
+        <v>73057.74033104064</v>
       </c>
       <c r="S18">
-        <v>0.07971455106334191</v>
+        <v>0.1067225466102793</v>
       </c>
       <c r="T18">
-        <v>0.07971455106334191</v>
+        <v>0.1067225466102793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H19">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N19">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O19">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P19">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q19">
-        <v>3559.132907812136</v>
+        <v>4451.944893325744</v>
       </c>
       <c r="R19">
-        <v>32032.19617030922</v>
+        <v>40067.50403993169</v>
       </c>
       <c r="S19">
-        <v>0.05003261400255539</v>
+        <v>0.05853049995911715</v>
       </c>
       <c r="T19">
-        <v>0.0500326140025554</v>
+        <v>0.05853049995911716</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H20">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N20">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O20">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P20">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q20">
-        <v>2493.365861569306</v>
+        <v>3790.426726266816</v>
       </c>
       <c r="R20">
-        <v>22440.29275412375</v>
+        <v>34113.84053640135</v>
       </c>
       <c r="S20">
-        <v>0.03505056286187747</v>
+        <v>0.04983340464959424</v>
       </c>
       <c r="T20">
-        <v>0.03505056286187748</v>
+        <v>0.04983340464959426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H21">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N21">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O21">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P21">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q21">
-        <v>3291.043356676136</v>
+        <v>3766.370457746072</v>
       </c>
       <c r="R21">
-        <v>29619.39021008522</v>
+        <v>33897.33411971465</v>
       </c>
       <c r="S21">
-        <v>0.04626393736767492</v>
+        <v>0.0495171326701767</v>
       </c>
       <c r="T21">
-        <v>0.04626393736767492</v>
+        <v>0.04951713267017672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.15236</v>
+      </c>
+      <c r="I22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>127.5808283333333</v>
+      </c>
+      <c r="N22">
+        <v>382.742485</v>
+      </c>
+      <c r="O22">
+        <v>0.1532286472569342</v>
+      </c>
+      <c r="P22">
+        <v>0.1532286472569342</v>
+      </c>
+      <c r="Q22">
+        <v>6.479405001622222</v>
+      </c>
+      <c r="R22">
+        <v>58.3146450146</v>
+      </c>
+      <c r="S22">
+        <v>8.518587342604023E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.518587342604023E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.15236</v>
+      </c>
+      <c r="I23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>284.3623303333333</v>
+      </c>
+      <c r="N23">
+        <v>853.0869909999999</v>
+      </c>
+      <c r="O23">
+        <v>0.341528235684153</v>
+      </c>
+      <c r="P23">
+        <v>0.341528235684153</v>
+      </c>
+      <c r="Q23">
+        <v>14.44181488319555</v>
+      </c>
+      <c r="R23">
+        <v>129.97633394876</v>
+      </c>
+      <c r="S23">
+        <v>0.0001898690719864232</v>
+      </c>
+      <c r="T23">
+        <v>0.0001898690719864232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.15236</v>
+      </c>
+      <c r="I24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>155.9545746666667</v>
+      </c>
+      <c r="N24">
+        <v>467.863724</v>
+      </c>
+      <c r="O24">
+        <v>0.1873064223040503</v>
+      </c>
+      <c r="P24">
+        <v>0.1873064223040503</v>
+      </c>
+      <c r="Q24">
+        <v>7.920412998737778</v>
+      </c>
+      <c r="R24">
+        <v>71.28371698864001</v>
+      </c>
+      <c r="S24">
+        <v>0.0001041310581794959</v>
+      </c>
+      <c r="T24">
+        <v>0.0001041310581794959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.15236</v>
+      </c>
+      <c r="I25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>132.7811556666666</v>
+      </c>
+      <c r="N25">
+        <v>398.343467</v>
+      </c>
+      <c r="O25">
+        <v>0.1594744063806953</v>
+      </c>
+      <c r="P25">
+        <v>0.1594744063806954</v>
+      </c>
+      <c r="Q25">
+        <v>6.743512292457777</v>
+      </c>
+      <c r="R25">
+        <v>60.69161063212</v>
+      </c>
+      <c r="S25">
+        <v>8.865813827788683E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.865813827788684E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.15236</v>
+      </c>
+      <c r="I26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>131.9384486666667</v>
+      </c>
+      <c r="N26">
+        <v>395.815346</v>
+      </c>
+      <c r="O26">
+        <v>0.1584622883741672</v>
+      </c>
+      <c r="P26">
+        <v>0.1584622883741672</v>
+      </c>
+      <c r="Q26">
+        <v>6.700714012951111</v>
+      </c>
+      <c r="R26">
+        <v>60.30642611656</v>
+      </c>
+      <c r="S26">
+        <v>8.809546179447603E-05</v>
+      </c>
+      <c r="T26">
+        <v>8.809546179447605E-05</v>
       </c>
     </row>
   </sheetData>
